--- a/Team-Data/2007-08/4-16-2007-08.xlsx
+++ b/Team-Data/2007-08/4-16-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2" t="n">
         <v>37</v>
       </c>
       <c r="F2" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" t="n">
-        <v>0.451</v>
+        <v>0.457</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
@@ -693,19 +760,19 @@
         <v>4.7</v>
       </c>
       <c r="M2" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O2" t="n">
         <v>21</v>
       </c>
       <c r="P2" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.772</v>
+        <v>0.773</v>
       </c>
       <c r="R2" t="n">
         <v>12.3</v>
@@ -732,25 +799,25 @@
         <v>5.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB2" t="n">
         <v>98.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.8</v>
+        <v>-1.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG2" t="n">
         <v>19</v>
@@ -774,7 +841,7 @@
         <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO2" t="n">
         <v>5</v>
@@ -807,7 +874,7 @@
         <v>4</v>
       </c>
       <c r="AY2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" t="n">
         <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>0.805</v>
+        <v>0.802</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
@@ -866,7 +933,7 @@
         <v>36.4</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K3" t="n">
         <v>0.475</v>
@@ -878,10 +945,10 @@
         <v>19.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.381</v>
+        <v>0.38</v>
       </c>
       <c r="O3" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="P3" t="n">
         <v>26.5</v>
@@ -911,7 +978,7 @@
         <v>4.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z3" t="n">
         <v>22.7</v>
@@ -923,10 +990,10 @@
         <v>100.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -968,13 +1035,13 @@
         <v>8</v>
       </c>
       <c r="AR3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS3" t="n">
         <v>9</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU3" t="n">
         <v>8</v>
@@ -989,7 +1056,7 @@
         <v>18</v>
       </c>
       <c r="AY3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="n">
         <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>0.39</v>
+        <v>0.383</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J4" t="n">
         <v>79.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.452</v>
+        <v>0.45</v>
       </c>
       <c r="L4" t="n">
         <v>6.5</v>
@@ -1069,7 +1136,7 @@
         <v>25.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.714</v>
+        <v>0.713</v>
       </c>
       <c r="R4" t="n">
         <v>10.9</v>
@@ -1078,10 +1145,10 @@
         <v>29.8</v>
       </c>
       <c r="T4" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U4" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V4" t="n">
         <v>14.7</v>
@@ -1090,10 +1157,10 @@
         <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z4" t="n">
         <v>21.7</v>
@@ -1102,13 +1169,13 @@
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.09999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.4</v>
+        <v>-4.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1129,7 +1196,7 @@
         <v>20</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
         <v>16</v>
@@ -1141,7 +1208,7 @@
         <v>12</v>
       </c>
       <c r="AO4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AP4" t="n">
         <v>11</v>
@@ -1159,16 +1226,16 @@
         <v>26</v>
       </c>
       <c r="AU4" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AV4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX4" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
@@ -1180,7 +1247,7 @@
         <v>17</v>
       </c>
       <c r="BB4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" t="n">
         <v>49</v>
       </c>
       <c r="G5" t="n">
-        <v>0.402</v>
+        <v>0.395</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
@@ -1242,16 +1309,16 @@
         <v>15.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.363</v>
+        <v>0.367</v>
       </c>
       <c r="O5" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P5" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.756</v>
+        <v>0.754</v>
       </c>
       <c r="R5" t="n">
         <v>12.8</v>
@@ -1260,10 +1327,10 @@
         <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U5" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V5" t="n">
         <v>14.6</v>
@@ -1281,16 +1348,16 @@
         <v>21.8</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.1</v>
+        <v>-3.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1305,7 +1372,7 @@
         <v>14</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
@@ -1320,7 +1387,7 @@
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO5" t="n">
         <v>15</v>
@@ -1338,7 +1405,7 @@
         <v>18</v>
       </c>
       <c r="AT5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU5" t="n">
         <v>11</v>
@@ -1347,10 +1414,10 @@
         <v>18</v>
       </c>
       <c r="AW5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY5" t="n">
         <v>28</v>
@@ -1362,7 +1429,7 @@
         <v>12</v>
       </c>
       <c r="BB5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -1394,43 +1461,43 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" t="n">
         <v>45</v>
       </c>
       <c r="F6" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="n">
-        <v>0.549</v>
+        <v>0.556</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J6" t="n">
         <v>81.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L6" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M6" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="N6" t="n">
-        <v>0.358</v>
+        <v>0.36</v>
       </c>
       <c r="O6" t="n">
         <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
         <v>0.717</v>
@@ -1439,13 +1506,13 @@
         <v>13.3</v>
       </c>
       <c r="S6" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T6" t="n">
-        <v>44.6</v>
+        <v>44.5</v>
       </c>
       <c r="U6" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V6" t="n">
         <v>14</v>
@@ -1460,19 +1527,19 @@
         <v>4.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
         <v>20.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1487,13 +1554,13 @@
         <v>5</v>
       </c>
       <c r="AI6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ6" t="n">
         <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
         <v>14</v>
@@ -1502,7 +1569,7 @@
         <v>13</v>
       </c>
       <c r="AN6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
         <v>21</v>
@@ -1517,13 +1584,13 @@
         <v>1</v>
       </c>
       <c r="AS6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV6" t="n">
         <v>10</v>
@@ -1532,7 +1599,7 @@
         <v>18</v>
       </c>
       <c r="AX6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
         <v>14</v>
@@ -1541,10 +1608,10 @@
         <v>16</v>
       </c>
       <c r="BA6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BC6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
         <v>31</v>
       </c>
       <c r="G7" t="n">
-        <v>0.622</v>
+        <v>0.617</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1594,16 +1661,16 @@
         <v>36.9</v>
       </c>
       <c r="J7" t="n">
-        <v>79.5</v>
+        <v>79.3</v>
       </c>
       <c r="K7" t="n">
-        <v>0.464</v>
+        <v>0.465</v>
       </c>
       <c r="L7" t="n">
         <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="N7" t="n">
         <v>0.352</v>
@@ -1615,10 +1682,10 @@
         <v>25.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S7" t="n">
         <v>32.2</v>
@@ -1630,7 +1697,7 @@
         <v>21</v>
       </c>
       <c r="V7" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>
@@ -1639,7 +1706,7 @@
         <v>4.9</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z7" t="n">
         <v>21.8</v>
@@ -1648,13 +1715,13 @@
         <v>21.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
@@ -1669,7 +1736,7 @@
         <v>25</v>
       </c>
       <c r="AI7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
         <v>24</v>
@@ -1702,7 +1769,7 @@
         <v>7</v>
       </c>
       <c r="AT7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU7" t="n">
         <v>20</v>
@@ -1720,10 +1787,10 @@
         <v>8</v>
       </c>
       <c r="AZ7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" t="n">
         <v>32</v>
       </c>
       <c r="G8" t="n">
-        <v>0.61</v>
+        <v>0.605</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
@@ -1776,7 +1843,7 @@
         <v>40.3</v>
       </c>
       <c r="J8" t="n">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="K8" t="n">
         <v>0.47</v>
@@ -1785,28 +1852,28 @@
         <v>6.9</v>
       </c>
       <c r="M8" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O8" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="P8" t="n">
         <v>30.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.751</v>
+        <v>0.75</v>
       </c>
       <c r="R8" t="n">
         <v>11.2</v>
       </c>
       <c r="S8" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="T8" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="U8" t="n">
         <v>24.7</v>
@@ -1830,13 +1897,13 @@
         <v>23.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>110.7</v>
+        <v>110.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1890,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" t="n">
         <v>23</v>
       </c>
       <c r="G9" t="n">
-        <v>0.72</v>
+        <v>0.716</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
@@ -1961,10 +2028,10 @@
         <v>79.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L9" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>16.2</v>
@@ -1979,16 +2046,16 @@
         <v>24</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R9" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S9" t="n">
         <v>29.5</v>
       </c>
       <c r="T9" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U9" t="n">
         <v>22.3</v>
@@ -1997,10 +2064,10 @@
         <v>11.7</v>
       </c>
       <c r="W9" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X9" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y9" t="n">
         <v>3.9</v>
@@ -2009,16 +2076,16 @@
         <v>20.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC9" t="n">
         <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2033,7 +2100,7 @@
         <v>25</v>
       </c>
       <c r="AI9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
         <v>22</v>
@@ -2042,16 +2109,16 @@
         <v>13</v>
       </c>
       <c r="AL9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM9" t="n">
         <v>22</v>
       </c>
       <c r="AN9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP9" t="n">
         <v>22</v>
@@ -2060,16 +2127,16 @@
         <v>14</v>
       </c>
       <c r="AR9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS9" t="n">
         <v>25</v>
       </c>
       <c r="AT9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2090,7 +2157,7 @@
         <v>25</v>
       </c>
       <c r="BB9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -2122,58 +2189,58 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" t="n">
         <v>48</v>
       </c>
       <c r="F10" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" t="n">
-        <v>0.585</v>
+        <v>0.593</v>
       </c>
       <c r="H10" t="n">
         <v>48.2</v>
       </c>
       <c r="I10" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="J10" t="n">
-        <v>90.3</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L10" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="N10" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O10" t="n">
         <v>18.8</v>
       </c>
       <c r="P10" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q10" t="n">
         <v>0.752</v>
       </c>
       <c r="R10" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S10" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T10" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U10" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V10" t="n">
         <v>13.2</v>
@@ -2188,19 +2255,19 @@
         <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AA10" t="n">
         <v>21.2</v>
       </c>
       <c r="AB10" t="n">
-        <v>111</v>
+        <v>110.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>12</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL10" t="n">
         <v>2</v>
@@ -2233,7 +2300,7 @@
         <v>23</v>
       </c>
       <c r="AO10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP10" t="n">
         <v>16</v>
@@ -2245,16 +2312,16 @@
         <v>5</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT10" t="n">
         <v>6</v>
       </c>
       <c r="AU10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV10" t="n">
         <v>8</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>7</v>
       </c>
       <c r="AW10" t="n">
         <v>2</v>
@@ -2269,7 +2336,7 @@
         <v>27</v>
       </c>
       <c r="BA10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BB10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" t="n">
         <v>27</v>
       </c>
       <c r="G11" t="n">
-        <v>0.671</v>
+        <v>0.667</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
@@ -2322,28 +2389,28 @@
         <v>36.6</v>
       </c>
       <c r="J11" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L11" t="n">
         <v>7.1</v>
       </c>
       <c r="M11" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="N11" t="n">
         <v>0.342</v>
       </c>
       <c r="O11" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P11" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.726</v>
+        <v>0.727</v>
       </c>
       <c r="R11" t="n">
         <v>12.2</v>
@@ -2358,7 +2425,7 @@
         <v>21.4</v>
       </c>
       <c r="V11" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W11" t="n">
         <v>7.3</v>
@@ -2370,19 +2437,19 @@
         <v>4.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA11" t="n">
         <v>19.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
@@ -2397,13 +2464,13 @@
         <v>25</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="n">
         <v>10</v>
@@ -2415,13 +2482,13 @@
         <v>26</v>
       </c>
       <c r="AO11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP11" t="n">
         <v>25</v>
       </c>
       <c r="AQ11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR11" t="n">
         <v>9</v>
@@ -2454,10 +2521,10 @@
         <v>26</v>
       </c>
       <c r="BB11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" t="n">
         <v>46</v>
       </c>
       <c r="G12" t="n">
-        <v>0.439</v>
+        <v>0.432</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
@@ -2507,40 +2574,40 @@
         <v>85.3</v>
       </c>
       <c r="K12" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L12" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="M12" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="N12" t="n">
-        <v>0.374</v>
+        <v>0.372</v>
       </c>
       <c r="O12" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P12" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.768</v>
+        <v>0.766</v>
       </c>
       <c r="R12" t="n">
         <v>11</v>
       </c>
       <c r="S12" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T12" t="n">
         <v>43.1</v>
       </c>
       <c r="U12" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V12" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W12" t="n">
         <v>7.6</v>
@@ -2552,19 +2619,19 @@
         <v>5.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="AA12" t="n">
         <v>21.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>104</v>
+        <v>103.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
@@ -2585,7 +2652,7 @@
         <v>4</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
         <v>3</v>
@@ -2594,16 +2661,16 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP12" t="n">
         <v>17</v>
       </c>
       <c r="AQ12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR12" t="n">
         <v>17</v>
@@ -2627,13 +2694,13 @@
         <v>9</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -2668,22 +2735,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" t="n">
         <v>23</v>
       </c>
       <c r="F13" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" t="n">
-        <v>0.28</v>
+        <v>0.284</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="J13" t="n">
         <v>78.59999999999999</v>
@@ -2704,49 +2771,49 @@
         <v>20.8</v>
       </c>
       <c r="P13" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S13" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T13" t="n">
         <v>40.1</v>
       </c>
       <c r="U13" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V13" t="n">
         <v>14.4</v>
       </c>
       <c r="W13" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X13" t="n">
         <v>4.9</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z13" t="n">
         <v>21.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.8</v>
+        <v>94</v>
       </c>
       <c r="AC13" t="n">
-        <v>-7.3</v>
+        <v>-7.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2764,7 +2831,7 @@
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2794,28 +2861,28 @@
         <v>17</v>
       </c>
       <c r="AT13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU13" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AV13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AW13" t="n">
         <v>20</v>
       </c>
       <c r="AX13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -2940,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
@@ -2958,10 +3025,10 @@
         <v>6</v>
       </c>
       <c r="AN14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP14" t="n">
         <v>5</v>
@@ -2994,7 +3061,7 @@
         <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3003,7 +3070,7 @@
         <v>4</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" t="n">
         <v>22</v>
       </c>
       <c r="F15" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" t="n">
-        <v>0.268</v>
+        <v>0.272</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>82.2</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L15" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M15" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="N15" t="n">
         <v>0.349</v>
       </c>
       <c r="O15" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P15" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="Q15" t="n">
         <v>0.723</v>
       </c>
       <c r="R15" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S15" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T15" t="n">
         <v>41.6</v>
       </c>
       <c r="U15" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="V15" t="n">
         <v>15.3</v>
@@ -3104,13 +3171,13 @@
         <v>22.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="AC15" t="n">
         <v>-6.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3128,7 +3195,7 @@
         <v>11</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK15" t="n">
         <v>15</v>
@@ -3137,13 +3204,13 @@
         <v>7</v>
       </c>
       <c r="AM15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN15" t="n">
         <v>22</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP15" t="n">
         <v>12</v>
@@ -3155,13 +3222,13 @@
         <v>22</v>
       </c>
       <c r="AS15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT15" t="n">
         <v>18</v>
       </c>
       <c r="AU15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV15" t="n">
         <v>28</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -3214,49 +3281,49 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
         <v>67</v>
       </c>
       <c r="G16" t="n">
-        <v>0.183</v>
+        <v>0.173</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="J16" t="n">
-        <v>77.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K16" t="n">
         <v>0.443</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M16" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="O16" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P16" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q16" t="n">
         <v>0.727</v>
       </c>
       <c r="R16" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="S16" t="n">
         <v>28.6</v>
@@ -3265,7 +3332,7 @@
         <v>37.6</v>
       </c>
       <c r="U16" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V16" t="n">
         <v>14.7</v>
@@ -3277,22 +3344,22 @@
         <v>4.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB16" t="n">
-        <v>91.40000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>-8.6</v>
+        <v>-8.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3304,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="AH16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="n">
         <v>30</v>
@@ -3313,16 +3380,16 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AM16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
         <v>25</v>
@@ -3331,7 +3398,7 @@
         <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
@@ -3343,16 +3410,16 @@
         <v>30</v>
       </c>
       <c r="AU16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV16" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AW16" t="n">
         <v>16</v>
       </c>
       <c r="AX16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY16" t="n">
         <v>6</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -3396,25 +3463,25 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" t="n">
         <v>26</v>
       </c>
       <c r="F17" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" t="n">
-        <v>0.317</v>
+        <v>0.321</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J17" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K17" t="n">
         <v>0.449</v>
@@ -3426,13 +3493,13 @@
         <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
       <c r="O17" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P17" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q17" t="n">
         <v>0.733</v>
@@ -3441,19 +3508,19 @@
         <v>12.9</v>
       </c>
       <c r="S17" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="T17" t="n">
-        <v>41.7</v>
+        <v>41.5</v>
       </c>
       <c r="U17" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V17" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W17" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X17" t="n">
         <v>4.4</v>
@@ -3474,7 +3541,7 @@
         <v>-6.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3486,16 +3553,16 @@
         <v>24</v>
       </c>
       <c r="AH17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ17" t="n">
         <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
         <v>24</v>
@@ -3522,13 +3589,13 @@
         <v>29</v>
       </c>
       <c r="AT17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU17" t="n">
         <v>14</v>
       </c>
       <c r="AV17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW17" t="n">
         <v>21</v>
@@ -3540,16 +3607,16 @@
         <v>19</v>
       </c>
       <c r="AZ17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA17" t="n">
         <v>16</v>
       </c>
       <c r="BB17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" t="n">
         <v>60</v>
       </c>
       <c r="G18" t="n">
-        <v>0.268</v>
+        <v>0.259</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
@@ -3596,22 +3663,22 @@
         <v>37.5</v>
       </c>
       <c r="J18" t="n">
-        <v>83.09999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L18" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M18" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O18" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="P18" t="n">
         <v>20.6</v>
@@ -3620,19 +3687,19 @@
         <v>0.736</v>
       </c>
       <c r="R18" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S18" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T18" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="U18" t="n">
         <v>19.9</v>
       </c>
       <c r="V18" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W18" t="n">
         <v>7.5</v>
@@ -3647,28 +3714,28 @@
         <v>23</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>95.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-6.8</v>
+        <v>-7</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH18" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AI18" t="n">
         <v>10</v>
@@ -3677,7 +3744,7 @@
         <v>7</v>
       </c>
       <c r="AK18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL18" t="n">
         <v>25</v>
@@ -3695,7 +3762,7 @@
         <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR18" t="n">
         <v>12</v>
@@ -3704,7 +3771,7 @@
         <v>24</v>
       </c>
       <c r="AT18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU18" t="n">
         <v>26</v>
@@ -3713,7 +3780,7 @@
         <v>17</v>
       </c>
       <c r="AW18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3731,7 +3798,7 @@
         <v>26</v>
       </c>
       <c r="BC18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -3760,49 +3827,49 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" t="n">
         <v>34</v>
       </c>
       <c r="F19" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" t="n">
-        <v>0.415</v>
+        <v>0.42</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="J19" t="n">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="K19" t="n">
         <v>0.443</v>
       </c>
       <c r="L19" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
         <v>17.4</v>
       </c>
       <c r="N19" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="O19" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="P19" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.736</v>
+        <v>0.735</v>
       </c>
       <c r="R19" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S19" t="n">
         <v>30.7</v>
@@ -3811,13 +3878,13 @@
         <v>41.9</v>
       </c>
       <c r="U19" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V19" t="n">
         <v>15</v>
       </c>
       <c r="W19" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X19" t="n">
         <v>4.8</v>
@@ -3826,7 +3893,7 @@
         <v>4.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA19" t="n">
         <v>22.4</v>
@@ -3835,10 +3902,10 @@
         <v>95.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.1</v>
+        <v>-5</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
         <v>21</v>
@@ -3850,7 +3917,7 @@
         <v>21</v>
       </c>
       <c r="AH19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI19" t="n">
         <v>28</v>
@@ -3859,7 +3926,7 @@
         <v>25</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>18</v>
@@ -3877,7 +3944,7 @@
         <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR19" t="n">
         <v>16</v>
@@ -3886,7 +3953,7 @@
         <v>13</v>
       </c>
       <c r="AT19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU19" t="n">
         <v>6</v>
@@ -3901,7 +3968,7 @@
         <v>16</v>
       </c>
       <c r="AY19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" t="n">
         <v>56</v>
       </c>
       <c r="F20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3969,7 +4036,7 @@
         <v>7.7</v>
       </c>
       <c r="M20" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N20" t="n">
         <v>0.389</v>
@@ -4002,13 +4069,13 @@
         <v>7.8</v>
       </c>
       <c r="X20" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AA20" t="n">
         <v>19.2</v>
@@ -4017,16 +4084,16 @@
         <v>100.9</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE20" t="n">
         <v>4</v>
       </c>
       <c r="AF20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG20" t="n">
         <v>4</v>
@@ -4083,7 +4150,7 @@
         <v>28</v>
       </c>
       <c r="AY20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ20" t="n">
         <v>1</v>
@@ -4095,7 +4162,7 @@
         <v>9</v>
       </c>
       <c r="BC20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -4124,46 +4191,46 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" t="n">
         <v>23</v>
       </c>
       <c r="F21" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" t="n">
-        <v>0.28</v>
+        <v>0.284</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J21" t="n">
-        <v>82.40000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M21" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="N21" t="n">
         <v>0.337</v>
       </c>
       <c r="O21" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="P21" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.727</v>
+        <v>0.725</v>
       </c>
       <c r="R21" t="n">
         <v>12.5</v>
@@ -4175,13 +4242,13 @@
         <v>42.5</v>
       </c>
       <c r="U21" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="V21" t="n">
         <v>14.5</v>
       </c>
       <c r="W21" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X21" t="n">
         <v>2.6</v>
@@ -4190,19 +4257,19 @@
         <v>5.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA21" t="n">
         <v>20.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>96.90000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC21" t="n">
         <v>-6.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
@@ -4223,7 +4290,7 @@
         <v>10</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
         <v>21</v>
@@ -4235,19 +4302,19 @@
         <v>27</v>
       </c>
       <c r="AO21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP21" t="n">
         <v>13</v>
       </c>
       <c r="AQ21" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AR21" t="n">
         <v>6</v>
       </c>
       <c r="AS21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT21" t="n">
         <v>10</v>
@@ -4259,7 +4326,7 @@
         <v>16</v>
       </c>
       <c r="AW21" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4271,10 +4338,10 @@
         <v>20</v>
       </c>
       <c r="BA21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BC21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -4306,61 +4373,61 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" t="n">
         <v>30</v>
       </c>
       <c r="G22" t="n">
-        <v>0.634</v>
+        <v>0.63</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
       </c>
       <c r="I22" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J22" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="K22" t="n">
-        <v>0.474</v>
+        <v>0.475</v>
       </c>
       <c r="L22" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M22" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="N22" t="n">
         <v>0.386</v>
       </c>
       <c r="O22" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="P22" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.721</v>
+        <v>0.722</v>
       </c>
       <c r="R22" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S22" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T22" t="n">
         <v>42</v>
       </c>
       <c r="U22" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V22" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W22" t="n">
         <v>6.3</v>
@@ -4372,19 +4439,19 @@
         <v>4.2</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AB22" t="n">
         <v>104.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>9</v>
@@ -4399,10 +4466,10 @@
         <v>18</v>
       </c>
       <c r="AI22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK22" t="n">
         <v>5</v>
@@ -4429,7 +4496,7 @@
         <v>28</v>
       </c>
       <c r="AS22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
         <v>12</v>
@@ -4438,19 +4505,19 @@
         <v>22</v>
       </c>
       <c r="AV22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW22" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AX22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY22" t="n">
         <v>7</v>
       </c>
       <c r="AZ22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
@@ -4459,7 +4526,7 @@
         <v>6</v>
       </c>
       <c r="BC22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -4488,61 +4555,61 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" t="n">
         <v>40</v>
       </c>
       <c r="F23" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" t="n">
-        <v>0.488</v>
+        <v>0.494</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J23" t="n">
-        <v>81.09999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L23" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.317</v>
+        <v>0.314</v>
       </c>
       <c r="O23" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P23" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.706</v>
+        <v>0.707</v>
       </c>
       <c r="R23" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="S23" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="T23" t="n">
         <v>41.9</v>
       </c>
       <c r="U23" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V23" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W23" t="n">
         <v>8.699999999999999</v>
@@ -4551,22 +4618,22 @@
         <v>4.9</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>17</v>
@@ -4587,7 +4654,7 @@
         <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4599,7 +4666,7 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP23" t="n">
         <v>10</v>
@@ -4614,7 +4681,7 @@
         <v>28</v>
       </c>
       <c r="AT23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU23" t="n">
         <v>23</v>
@@ -4626,10 +4693,10 @@
         <v>4</v>
       </c>
       <c r="AX23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ23" t="n">
         <v>7</v>
@@ -4638,7 +4705,7 @@
         <v>18</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F24" t="n">
         <v>27</v>
       </c>
       <c r="G24" t="n">
-        <v>0.671</v>
+        <v>0.667</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4688,7 +4755,7 @@
         <v>41.4</v>
       </c>
       <c r="J24" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K24" t="n">
         <v>0.5</v>
@@ -4697,13 +4764,13 @@
         <v>8.5</v>
       </c>
       <c r="M24" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="N24" t="n">
         <v>0.393</v>
       </c>
       <c r="O24" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P24" t="n">
         <v>24.1</v>
@@ -4715,40 +4782,40 @@
         <v>8.800000000000001</v>
       </c>
       <c r="S24" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="T24" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="U24" t="n">
         <v>26.7</v>
       </c>
       <c r="V24" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W24" t="n">
         <v>6.5</v>
       </c>
       <c r="X24" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y24" t="n">
         <v>3.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA24" t="n">
         <v>21.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>110.1</v>
+        <v>110.2</v>
       </c>
       <c r="AC24" t="n">
         <v>5</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>6</v>
@@ -4763,7 +4830,7 @@
         <v>18</v>
       </c>
       <c r="AI24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ24" t="n">
         <v>9</v>
@@ -4775,7 +4842,7 @@
         <v>4</v>
       </c>
       <c r="AM24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN24" t="n">
         <v>1</v>
@@ -4787,16 +4854,16 @@
         <v>21</v>
       </c>
       <c r="AQ24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR24" t="n">
         <v>30</v>
       </c>
       <c r="AS24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -4852,61 +4919,61 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E25" t="n">
         <v>41</v>
       </c>
       <c r="F25" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>0.506</v>
       </c>
       <c r="H25" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I25" t="n">
         <v>35.8</v>
       </c>
       <c r="J25" t="n">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L25" t="n">
         <v>6.6</v>
       </c>
       <c r="M25" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.377</v>
+        <v>0.378</v>
       </c>
       <c r="O25" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P25" t="n">
         <v>22.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.767</v>
+        <v>0.768</v>
       </c>
       <c r="R25" t="n">
         <v>11</v>
       </c>
       <c r="S25" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T25" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U25" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V25" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W25" t="n">
         <v>5.5</v>
@@ -4927,10 +4994,10 @@
         <v>95.40000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -4945,13 +5012,13 @@
         <v>1</v>
       </c>
       <c r="AI25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ25" t="n">
         <v>23</v>
       </c>
       <c r="AK25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL25" t="n">
         <v>15</v>
@@ -4960,7 +5027,7 @@
         <v>18</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO25" t="n">
         <v>24</v>
@@ -4969,7 +5036,7 @@
         <v>26</v>
       </c>
       <c r="AQ25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR25" t="n">
         <v>18</v>
@@ -4981,7 +5048,7 @@
         <v>25</v>
       </c>
       <c r="AU25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV25" t="n">
         <v>6</v>
@@ -4999,10 +5066,10 @@
         <v>9</v>
       </c>
       <c r="BA25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -5124,7 +5191,7 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
         <v>14</v>
@@ -5139,7 +5206,7 @@
         <v>17</v>
       </c>
       <c r="AM26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN26" t="n">
         <v>9</v>
@@ -5154,16 +5221,16 @@
         <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT26" t="n">
         <v>29</v>
       </c>
       <c r="AU26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV26" t="n">
         <v>30</v>
@@ -5172,7 +5239,7 @@
         <v>7</v>
       </c>
       <c r="AX26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY26" t="n">
         <v>27</v>
@@ -5181,7 +5248,7 @@
         <v>24</v>
       </c>
       <c r="BA26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB26" t="n">
         <v>8</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E27" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F27" t="n">
         <v>26</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
@@ -5234,22 +5301,22 @@
         <v>35.8</v>
       </c>
       <c r="J27" t="n">
-        <v>78.3</v>
+        <v>78.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L27" t="n">
         <v>7.2</v>
       </c>
       <c r="M27" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N27" t="n">
-        <v>0.369</v>
+        <v>0.368</v>
       </c>
       <c r="O27" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P27" t="n">
         <v>21.6</v>
@@ -5258,22 +5325,22 @@
         <v>0.761</v>
       </c>
       <c r="R27" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="S27" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T27" t="n">
         <v>41.3</v>
       </c>
       <c r="U27" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V27" t="n">
         <v>12.6</v>
       </c>
       <c r="W27" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X27" t="n">
         <v>4.1</v>
@@ -5288,28 +5355,28 @@
         <v>19.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>95.40000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH27" t="n">
         <v>25</v>
       </c>
       <c r="AI27" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
@@ -5327,7 +5394,7 @@
         <v>11</v>
       </c>
       <c r="AO27" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AP27" t="n">
         <v>27</v>
@@ -5342,7 +5409,7 @@
         <v>10</v>
       </c>
       <c r="AT27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU27" t="n">
         <v>21</v>
@@ -5351,13 +5418,13 @@
         <v>4</v>
       </c>
       <c r="AW27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AX27" t="n">
         <v>24</v>
       </c>
       <c r="AY27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ27" t="n">
         <v>2</v>
@@ -5366,10 +5433,10 @@
         <v>24</v>
       </c>
       <c r="BB27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F28" t="n">
         <v>62</v>
       </c>
       <c r="G28" t="n">
-        <v>0.244</v>
+        <v>0.235</v>
       </c>
       <c r="H28" t="n">
         <v>48.4</v>
       </c>
       <c r="I28" t="n">
-        <v>38.1</v>
+        <v>37.9</v>
       </c>
       <c r="J28" t="n">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L28" t="n">
         <v>3.8</v>
@@ -5428,7 +5495,7 @@
         <v>11.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.333</v>
+        <v>0.332</v>
       </c>
       <c r="O28" t="n">
         <v>17.5</v>
@@ -5443,13 +5510,13 @@
         <v>11.8</v>
       </c>
       <c r="S28" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T28" t="n">
-        <v>44.6</v>
+        <v>44.5</v>
       </c>
       <c r="U28" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V28" t="n">
         <v>16</v>
@@ -5467,16 +5534,16 @@
         <v>20.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.5</v>
+        <v>97.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>29</v>
@@ -5488,7 +5555,7 @@
         <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
@@ -5518,16 +5585,16 @@
         <v>9</v>
       </c>
       <c r="AR28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT28" t="n">
         <v>3</v>
       </c>
-      <c r="AT28" t="n">
-        <v>2</v>
-      </c>
       <c r="AU28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AV28" t="n">
         <v>29</v>
@@ -5548,10 +5615,10 @@
         <v>27</v>
       </c>
       <c r="BB28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BC28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E29" t="n">
         <v>41</v>
       </c>
       <c r="F29" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>0.506</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5598,10 +5665,10 @@
         <v>38.4</v>
       </c>
       <c r="J29" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.468</v>
+        <v>0.469</v>
       </c>
       <c r="L29" t="n">
         <v>7</v>
@@ -5613,40 +5680,40 @@
         <v>0.392</v>
       </c>
       <c r="O29" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P29" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="R29" t="n">
         <v>9.6</v>
       </c>
       <c r="S29" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T29" t="n">
         <v>40.1</v>
       </c>
       <c r="U29" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="V29" t="n">
         <v>11.7</v>
       </c>
       <c r="W29" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X29" t="n">
         <v>4.1</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA29" t="n">
         <v>18.4</v>
@@ -5655,10 +5722,10 @@
         <v>100.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
@@ -5670,13 +5737,13 @@
         <v>15</v>
       </c>
       <c r="AH29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
         <v>7</v>
@@ -5691,7 +5758,7 @@
         <v>2</v>
       </c>
       <c r="AO29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP29" t="n">
         <v>30</v>
@@ -5706,13 +5773,13 @@
         <v>14</v>
       </c>
       <c r="AT29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU29" t="n">
         <v>5</v>
       </c>
       <c r="AV29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW29" t="n">
         <v>19</v>
@@ -5721,7 +5788,7 @@
         <v>25</v>
       </c>
       <c r="AY29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ29" t="n">
         <v>4</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E30" t="n">
         <v>54</v>
       </c>
       <c r="F30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G30" t="n">
-        <v>0.659</v>
+        <v>0.667</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="J30" t="n">
         <v>80.40000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.497</v>
+        <v>0.499</v>
       </c>
       <c r="L30" t="n">
         <v>5</v>
@@ -5792,13 +5859,13 @@
         <v>13.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.372</v>
+        <v>0.374</v>
       </c>
       <c r="O30" t="n">
         <v>21.3</v>
       </c>
       <c r="P30" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="Q30" t="n">
         <v>0.759</v>
@@ -5813,46 +5880,46 @@
         <v>40.9</v>
       </c>
       <c r="U30" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="V30" t="n">
         <v>14.6</v>
       </c>
       <c r="W30" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y30" t="n">
         <v>5.1</v>
       </c>
       <c r="Z30" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="AA30" t="n">
         <v>23.1</v>
       </c>
       <c r="AB30" t="n">
-        <v>106.2</v>
+        <v>106.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AG30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI30" t="n">
         <v>4</v>
@@ -5870,10 +5937,10 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP30" t="n">
         <v>2</v>
@@ -5903,19 +5970,19 @@
         <v>22</v>
       </c>
       <c r="AY30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ30" t="n">
         <v>30</v>
       </c>
       <c r="BA30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB30" t="n">
         <v>5</v>
       </c>
       <c r="BC30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
@@ -5944,25 +6011,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" t="n">
         <v>43</v>
       </c>
       <c r="F31" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31" t="n">
-        <v>0.524</v>
+        <v>0.531</v>
       </c>
       <c r="H31" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I31" t="n">
         <v>36.4</v>
       </c>
       <c r="J31" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K31" t="n">
         <v>0.446</v>
@@ -5974,16 +6041,16 @@
         <v>19.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O31" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P31" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.782</v>
+        <v>0.784</v>
       </c>
       <c r="R31" t="n">
         <v>12.3</v>
@@ -6001,7 +6068,7 @@
         <v>13.2</v>
       </c>
       <c r="W31" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X31" t="n">
         <v>4.8</v>
@@ -6013,16 +6080,16 @@
         <v>19.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.8</v>
+        <v>99</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6037,10 +6104,10 @@
         <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AK31" t="n">
         <v>22</v>
@@ -6052,16 +6119,16 @@
         <v>9</v>
       </c>
       <c r="AN31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP31" t="n">
         <v>19</v>
       </c>
       <c r="AQ31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR31" t="n">
         <v>8</v>
@@ -6070,7 +6137,7 @@
         <v>27</v>
       </c>
       <c r="AT31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
@@ -6079,19 +6146,19 @@
         <v>7</v>
       </c>
       <c r="AW31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX31" t="n">
         <v>15</v>
       </c>
       <c r="AY31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ31" t="n">
         <v>5</v>
       </c>
       <c r="BA31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB31" t="n">
         <v>14</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-16-2007-08</t>
+          <t>2008-04-16</t>
         </is>
       </c>
     </row>
